--- a/Hardware/batterij/battery_database.xlsx
+++ b/Hardware/batterij/battery_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\OneDrive\Documenten\GitHub\Small-scale-remote-controlled-cargo-truck\Hardware\batterij\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67472FA-BCE8-4811-BFAF-BFADC21FE932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB79DA-F6BA-4012-8E24-57CBE8C11BE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3255" windowWidth="29040" windowHeight="16440" xr2:uid="{FF067A31-E3E6-4B16-8964-8F29E3124CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF067A31-E3E6-4B16-8964-8F29E3124CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>BATTERIJ</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>charging mohm end</t>
+  </si>
+  <si>
+    <t>cell direct plat</t>
+  </si>
+  <si>
+    <t>opmerking</t>
   </si>
 </sst>
 </file>
@@ -256,12 +262,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,8 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD9CD69-195B-4E0A-8AAC-7099947A9A95}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,9 +617,10 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,84 +636,216 @@
       <c r="E1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1328</v>
+      </c>
       <c r="C2">
         <v>1339</v>
       </c>
       <c r="D2">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1333</v>
+      </c>
+      <c r="C3">
+        <v>1314</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1319</v>
+      </c>
+      <c r="C4">
+        <v>1314</v>
+      </c>
+      <c r="D4">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1313</v>
+      </c>
+      <c r="C5">
+        <v>1315</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1315</v>
+      </c>
+      <c r="C6">
+        <v>1303</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7">
+        <v>1298</v>
+      </c>
+      <c r="C7">
+        <v>1319</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>1268</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1315</v>
+      </c>
+      <c r="D8" s="1">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1260</v>
+      </c>
+      <c r="C9">
+        <v>1304</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1229</v>
+      </c>
+      <c r="C10">
+        <v>1306</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1241</v>
+      </c>
+      <c r="C11">
+        <v>1330</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1299</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1319</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/Hardware/batterij/battery_database.xlsx
+++ b/Hardware/batterij/battery_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\OneDrive\Documenten\GitHub\Small-scale-remote-controlled-cargo-truck\Hardware\batterij\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB79DA-F6BA-4012-8E24-57CBE8C11BE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22D5A0-BB20-419A-80C6-45EF33C9FEFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF067A31-E3E6-4B16-8964-8F29E3124CE2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>BATTERIJ</t>
   </si>
@@ -243,10 +243,16 @@
     <t>charging mohm end</t>
   </si>
   <si>
-    <t>cell direct plat</t>
-  </si>
-  <si>
     <t>opmerking</t>
+  </si>
+  <si>
+    <t>in 2keer opegeladen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell 2de poging </t>
+  </si>
+  <si>
+    <t>H2</t>
   </si>
 </sst>
 </file>
@@ -262,18 +268,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,9 +288,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD9CD69-195B-4E0A-8AAC-7099947A9A95}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +616,7 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,7 +636,7 @@
         <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,23 +742,23 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>1268</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1315</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>47</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,195 +816,573 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1262</v>
+      </c>
       <c r="C12">
         <v>1299</v>
       </c>
       <c r="D12">
         <v>44</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>1272</v>
+      </c>
       <c r="C13">
         <v>1319</v>
       </c>
       <c r="D13">
         <v>43</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1244</v>
+      </c>
+      <c r="C14">
+        <v>1276</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>1249</v>
+      </c>
+      <c r="C15">
+        <v>1275</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1244</v>
+      </c>
+      <c r="C16">
+        <v>1271</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1253</v>
+      </c>
+      <c r="C17">
+        <v>1281</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1254</v>
+      </c>
+      <c r="C18">
+        <v>1284</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1242</v>
+      </c>
+      <c r="C19">
+        <v>1266</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1247</v>
+      </c>
+      <c r="C20">
+        <v>1272</v>
+      </c>
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1220</v>
+      </c>
+      <c r="C21">
+        <v>1274</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1270</v>
+      </c>
+      <c r="C22">
+        <v>1308</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1257</v>
+      </c>
+      <c r="C23">
+        <v>1291</v>
+      </c>
+      <c r="D23">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1258</v>
+      </c>
+      <c r="C24">
+        <v>1291</v>
+      </c>
+      <c r="D24">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1270</v>
+      </c>
+      <c r="C25">
+        <v>1298</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1259</v>
+      </c>
+      <c r="C26">
+        <v>1306</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1250</v>
+      </c>
+      <c r="C27">
+        <v>1285</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1271</v>
+      </c>
+      <c r="C28">
+        <v>1303</v>
+      </c>
+      <c r="D28">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1268</v>
+      </c>
+      <c r="C29">
+        <v>1302</v>
+      </c>
+      <c r="D29">
+        <v>46</v>
+      </c>
+      <c r="E29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1299</v>
+      </c>
+      <c r="C30">
+        <v>1285</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1305</v>
+      </c>
+      <c r="C31">
+        <v>1295</v>
+      </c>
+      <c r="D31">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1248</v>
+      </c>
+      <c r="C32">
+        <v>1291</v>
+      </c>
+      <c r="D32">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1248</v>
+      </c>
+      <c r="C33">
+        <v>1299</v>
+      </c>
+      <c r="D33">
+        <v>46</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1304</v>
+      </c>
+      <c r="C34">
+        <v>1290</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1330</v>
+      </c>
+      <c r="C35">
+        <v>1303</v>
+      </c>
+      <c r="D35">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1266</v>
+      </c>
+      <c r="C36">
+        <v>1281</v>
+      </c>
+      <c r="D36">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1272</v>
+      </c>
+      <c r="C37">
+        <v>1296</v>
+      </c>
+      <c r="D37">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1262</v>
+      </c>
+      <c r="C38">
+        <v>1279</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1272</v>
+      </c>
+      <c r="C39">
+        <v>1293</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1277</v>
+      </c>
+      <c r="C40">
+        <v>1297</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1274</v>
+      </c>
+      <c r="C41">
+        <v>1289</v>
+      </c>
+      <c r="D41">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1258</v>
+      </c>
+      <c r="C42">
+        <v>1290</v>
+      </c>
+      <c r="D42">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1241</v>
+      </c>
+      <c r="C43">
+        <v>1263</v>
+      </c>
+      <c r="D43">
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1093,6 +1470,11 @@
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/batterij/battery_database.xlsx
+++ b/Hardware/batterij/battery_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\OneDrive\Documenten\GitHub\Small-scale-remote-controlled-cargo-truck\Hardware\batterij\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22D5A0-BB20-419A-80C6-45EF33C9FEFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B9D5A-349C-4591-A0CC-AE9BF99344CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF067A31-E3E6-4B16-8964-8F29E3124CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FF067A31-E3E6-4B16-8964-8F29E3124CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>BATTERIJ</t>
   </si>
@@ -231,9 +231,6 @@
     <t>H1</t>
   </si>
   <si>
-    <t>CHARGE Mah</t>
-  </si>
-  <si>
     <t>discharge [mAh@2A]</t>
   </si>
   <si>
@@ -253,6 +250,15 @@
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>CHARGE Mah [@1.5A]</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>vergeten</t>
   </si>
 </sst>
 </file>
@@ -606,13 +612,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD9CD69-195B-4E0A-8AAC-7099947A9A95}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -624,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,7 +764,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -846,7 +852,7 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,7 +872,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,115 +1372,397 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
+      <c r="B44">
+        <v>1254</v>
+      </c>
+      <c r="C44">
+        <v>1272</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
+      <c r="B45">
+        <v>1262</v>
+      </c>
+      <c r="C45">
+        <v>1279</v>
+      </c>
+      <c r="D45">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>1261</v>
+      </c>
+      <c r="C46">
+        <v>1281</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>1253</v>
+      </c>
+      <c r="C47">
+        <v>1278</v>
+      </c>
+      <c r="D47">
+        <v>43</v>
+      </c>
+      <c r="E47">
+        <v>34</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1258</v>
+      </c>
+      <c r="C48">
+        <v>1281</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1252</v>
+      </c>
+      <c r="C49">
+        <v>1277</v>
+      </c>
+      <c r="D49">
+        <v>43</v>
+      </c>
+      <c r="E49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1248</v>
+      </c>
+      <c r="C50">
+        <v>1288</v>
+      </c>
+      <c r="D50">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1255</v>
+      </c>
+      <c r="C51">
+        <v>1281</v>
+      </c>
+      <c r="D51">
+        <v>39</v>
+      </c>
+      <c r="E51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1262</v>
+      </c>
+      <c r="C52">
+        <v>1284</v>
+      </c>
+      <c r="D52">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1256</v>
+      </c>
+      <c r="C53">
+        <v>1283</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1261</v>
+      </c>
+      <c r="C54">
+        <v>1287</v>
+      </c>
+      <c r="D54">
+        <v>47</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1244</v>
+      </c>
+      <c r="C55">
+        <v>1274</v>
+      </c>
+      <c r="D55">
+        <v>49</v>
+      </c>
+      <c r="E55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1254</v>
+      </c>
+      <c r="C56">
+        <v>1280</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="E56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1246</v>
+      </c>
+      <c r="C57">
+        <v>1270</v>
+      </c>
+      <c r="D57">
+        <v>45</v>
+      </c>
+      <c r="E57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1249</v>
+      </c>
+      <c r="C58">
+        <v>1285</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1262</v>
+      </c>
+      <c r="C59">
+        <v>1281</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1256</v>
+      </c>
+      <c r="C60">
+        <v>1281</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1272</v>
+      </c>
+      <c r="C61">
+        <v>1296</v>
+      </c>
+      <c r="D61">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1265</v>
+      </c>
+      <c r="C62">
+        <v>1291</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1254</v>
+      </c>
+      <c r="C63">
+        <v>1293</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1259</v>
+      </c>
+      <c r="C64">
+        <v>1282</v>
+      </c>
+      <c r="D64">
+        <v>43</v>
+      </c>
+      <c r="E64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1264</v>
+      </c>
+      <c r="C65">
+        <v>1281</v>
+      </c>
+      <c r="D65">
+        <v>43</v>
+      </c>
+      <c r="E65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>1244</v>
+      </c>
+      <c r="C66">
+        <v>1269</v>
+      </c>
+      <c r="D66">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
